--- a/output/populated_template.xlsx
+++ b/output/populated_template.xlsx
@@ -469,9 +469,15 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>6161</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5435</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5810</v>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -483,9 +489,21 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$367,073.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$316,822.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>$609,253.13</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -501,15 +519,19 @@
           <t>$0.00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$128,204.00</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$134,335.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$94,835.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -531,15 +553,19 @@
           <t>$0.00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$150,857.00</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$226,597.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$180,590.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -561,15 +587,19 @@
           <t>$0.00</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$646,134.84</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$677,754.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$884,678.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
